--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnas-Gcgr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnas-Gcgr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>111.005114</v>
+        <v>189.0573523333333</v>
       </c>
       <c r="H2">
-        <v>333.015342</v>
+        <v>567.172057</v>
       </c>
       <c r="I2">
-        <v>0.07617677061978852</v>
+        <v>0.1182556374491171</v>
       </c>
       <c r="J2">
-        <v>0.0761767706197885</v>
+        <v>0.1182556374491171</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2537453333333333</v>
+        <v>0.4568563333333334</v>
       </c>
       <c r="N2">
-        <v>0.7612359999999999</v>
+        <v>1.370569</v>
       </c>
       <c r="O2">
-        <v>0.1395119621451497</v>
+        <v>0.2459930547478846</v>
       </c>
       <c r="P2">
-        <v>0.1395119621451497</v>
+        <v>0.2459930547478847</v>
       </c>
       <c r="Q2">
-        <v>28.16702965363466</v>
+        <v>86.37204877671479</v>
       </c>
       <c r="R2">
-        <v>253.503266882712</v>
+        <v>777.3484389904331</v>
       </c>
       <c r="S2">
-        <v>0.01062757073904769</v>
+        <v>0.02909006549726666</v>
       </c>
       <c r="T2">
-        <v>0.01062757073904769</v>
+        <v>0.02909006549726666</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>111.005114</v>
+        <v>189.0573523333333</v>
       </c>
       <c r="H3">
-        <v>333.015342</v>
+        <v>567.172057</v>
       </c>
       <c r="I3">
-        <v>0.07617677061978852</v>
+        <v>0.1182556374491171</v>
       </c>
       <c r="J3">
-        <v>0.0761767706197885</v>
+        <v>0.1182556374491171</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>3.58202</v>
       </c>
       <c r="O3">
-        <v>0.6564779367281227</v>
+        <v>0.6429096542881224</v>
       </c>
       <c r="P3">
-        <v>0.6564779367281226</v>
+        <v>0.6429096542881225</v>
       </c>
       <c r="Q3">
-        <v>132.5408461500933</v>
+        <v>225.7357390683489</v>
       </c>
       <c r="R3">
-        <v>1192.86761535084</v>
+        <v>2031.62165161514</v>
       </c>
       <c r="S3">
-        <v>0.05000836920309024</v>
+        <v>0.07602769099003341</v>
       </c>
       <c r="T3">
-        <v>0.05000836920309023</v>
+        <v>0.07602769099003343</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>111.005114</v>
+        <v>189.0573523333333</v>
       </c>
       <c r="H4">
-        <v>333.015342</v>
+        <v>567.172057</v>
       </c>
       <c r="I4">
-        <v>0.07617677061978852</v>
+        <v>0.1182556374491171</v>
       </c>
       <c r="J4">
-        <v>0.0761767706197885</v>
+        <v>0.1182556374491171</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2555663333333333</v>
+        <v>0.206329</v>
       </c>
       <c r="N4">
-        <v>0.7666989999999999</v>
+        <v>0.6189870000000001</v>
       </c>
       <c r="O4">
-        <v>0.1405131678805576</v>
+        <v>0.111097290963993</v>
       </c>
       <c r="P4">
-        <v>0.1405131678805576</v>
+        <v>0.111097290963993</v>
       </c>
       <c r="Q4">
-        <v>28.36916996622866</v>
+        <v>39.00801444958434</v>
       </c>
       <c r="R4">
-        <v>255.322529696058</v>
+        <v>351.072130046259</v>
       </c>
       <c r="S4">
-        <v>0.01070383935869707</v>
+        <v>0.01313788096181702</v>
       </c>
       <c r="T4">
-        <v>0.01070383935869707</v>
+        <v>0.01313788096181702</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>111.005114</v>
+        <v>930.1503093333332</v>
       </c>
       <c r="H5">
-        <v>333.015342</v>
+        <v>2790.450928</v>
       </c>
       <c r="I5">
-        <v>0.07617677061978852</v>
+        <v>0.5818103152093762</v>
       </c>
       <c r="J5">
-        <v>0.0761767706197885</v>
+        <v>0.5818103152093762</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1154886666666667</v>
+        <v>0.4568563333333334</v>
       </c>
       <c r="N5">
-        <v>0.346466</v>
+        <v>1.370569</v>
       </c>
       <c r="O5">
-        <v>0.06349693324616998</v>
+        <v>0.2459930547478846</v>
       </c>
       <c r="P5">
-        <v>0.06349693324616996</v>
+        <v>0.2459930547478847</v>
       </c>
       <c r="Q5">
-        <v>12.81983260904133</v>
+        <v>424.9450597708924</v>
       </c>
       <c r="R5">
-        <v>115.378493481372</v>
+        <v>3824.505537938032</v>
       </c>
       <c r="S5">
-        <v>0.004836991318953514</v>
+        <v>0.1431212967221841</v>
       </c>
       <c r="T5">
-        <v>0.004836991318953512</v>
+        <v>0.1431212967221841</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>930.1503093333334</v>
+        <v>930.1503093333332</v>
       </c>
       <c r="H6">
         <v>2790.450928</v>
       </c>
       <c r="I6">
-        <v>0.6383115534299679</v>
+        <v>0.5818103152093762</v>
       </c>
       <c r="J6">
-        <v>0.6383115534299678</v>
+        <v>0.5818103152093762</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2537453333333333</v>
+        <v>1.194006666666667</v>
       </c>
       <c r="N6">
-        <v>0.7612359999999999</v>
+        <v>3.58202</v>
       </c>
       <c r="O6">
-        <v>0.1395119621451497</v>
+        <v>0.6429096542881224</v>
       </c>
       <c r="P6">
-        <v>0.1395119621451497</v>
+        <v>0.6429096542881225</v>
       </c>
       <c r="Q6">
-        <v>236.0213002918898</v>
+        <v>1110.605670346062</v>
       </c>
       <c r="R6">
-        <v>2124.191702627008</v>
+        <v>9995.451033114559</v>
       </c>
       <c r="S6">
-        <v>0.08905209727893341</v>
+        <v>0.3740514686125236</v>
       </c>
       <c r="T6">
-        <v>0.08905209727893336</v>
+        <v>0.3740514686125236</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,51 +847,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>930.1503093333334</v>
+        <v>930.1503093333332</v>
       </c>
       <c r="H7">
         <v>2790.450928</v>
       </c>
       <c r="I7">
-        <v>0.6383115534299679</v>
+        <v>0.5818103152093762</v>
       </c>
       <c r="J7">
-        <v>0.6383115534299678</v>
+        <v>0.5818103152093762</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>1.194006666666667</v>
+        <v>0.206329</v>
       </c>
       <c r="N7">
-        <v>3.58202</v>
+        <v>0.6189870000000001</v>
       </c>
       <c r="O7">
-        <v>0.6564779367281227</v>
+        <v>0.111097290963993</v>
       </c>
       <c r="P7">
-        <v>0.6564779367281226</v>
+        <v>0.111097290963993</v>
       </c>
       <c r="Q7">
-        <v>1110.605670346062</v>
+        <v>191.9169831744373</v>
       </c>
       <c r="R7">
-        <v>9995.451033114561</v>
+        <v>1727.252848569936</v>
       </c>
       <c r="S7">
-        <v>0.4190374515854282</v>
+        <v>0.06463754987466852</v>
       </c>
       <c r="T7">
-        <v>0.419037451585428</v>
+        <v>0.06463754987466853</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>930.1503093333334</v>
+        <v>420.6651306666666</v>
       </c>
       <c r="H8">
-        <v>2790.450928</v>
+        <v>1261.995392</v>
       </c>
       <c r="I8">
-        <v>0.6383115534299679</v>
+        <v>0.2631266256807295</v>
       </c>
       <c r="J8">
-        <v>0.6383115534299678</v>
+        <v>0.2631266256807295</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.2555663333333333</v>
+        <v>0.4568563333333334</v>
       </c>
       <c r="N8">
-        <v>0.7666989999999999</v>
+        <v>1.370569</v>
       </c>
       <c r="O8">
-        <v>0.1405131678805576</v>
+        <v>0.2459930547478846</v>
       </c>
       <c r="P8">
-        <v>0.1405131678805576</v>
+        <v>0.2459930547478847</v>
       </c>
       <c r="Q8">
-        <v>237.7151040051858</v>
+        <v>192.1835291575609</v>
       </c>
       <c r="R8">
-        <v>2139.435936046672</v>
+        <v>1729.651762418048</v>
       </c>
       <c r="S8">
-        <v>0.08969117846720459</v>
+        <v>0.06472732243670583</v>
       </c>
       <c r="T8">
-        <v>0.08969117846720456</v>
+        <v>0.06472732243670586</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>930.1503093333334</v>
+        <v>420.6651306666666</v>
       </c>
       <c r="H9">
-        <v>2790.450928</v>
+        <v>1261.995392</v>
       </c>
       <c r="I9">
-        <v>0.6383115534299679</v>
+        <v>0.2631266256807295</v>
       </c>
       <c r="J9">
-        <v>0.6383115534299678</v>
+        <v>0.2631266256807295</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1154886666666667</v>
+        <v>1.194006666666667</v>
       </c>
       <c r="N9">
-        <v>0.346466</v>
+        <v>3.58202</v>
       </c>
       <c r="O9">
-        <v>0.06349693324616998</v>
+        <v>0.6429096542881224</v>
       </c>
       <c r="P9">
-        <v>0.06349693324616996</v>
+        <v>0.6429096542881225</v>
       </c>
       <c r="Q9">
-        <v>107.4218190244942</v>
+        <v>502.2769704502043</v>
       </c>
       <c r="R9">
-        <v>966.796371220448</v>
+        <v>4520.492734051839</v>
       </c>
       <c r="S9">
-        <v>0.04053082609840174</v>
+        <v>0.169166647950398</v>
       </c>
       <c r="T9">
-        <v>0.04053082609840172</v>
+        <v>0.169166647950398</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,51 +1033,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>343.5753833333333</v>
+        <v>420.6651306666666</v>
       </c>
       <c r="H10">
-        <v>1030.72615</v>
+        <v>1261.995392</v>
       </c>
       <c r="I10">
-        <v>0.235777093718306</v>
+        <v>0.2631266256807295</v>
       </c>
       <c r="J10">
-        <v>0.235777093718306</v>
+        <v>0.2631266256807295</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.2537453333333333</v>
+        <v>0.206329</v>
       </c>
       <c r="N10">
-        <v>0.7612359999999999</v>
+        <v>0.6189870000000001</v>
       </c>
       <c r="O10">
-        <v>0.1395119621451497</v>
+        <v>0.111097290963993</v>
       </c>
       <c r="P10">
-        <v>0.1395119621451497</v>
+        <v>0.111097290963993</v>
       </c>
       <c r="Q10">
-        <v>87.18065016904444</v>
+        <v>86.79541574532266</v>
       </c>
       <c r="R10">
-        <v>784.6258515213999</v>
+        <v>781.1587417079039</v>
       </c>
       <c r="S10">
-        <v>0.03289372497352173</v>
+        <v>0.02923265529362567</v>
       </c>
       <c r="T10">
-        <v>0.03289372497352171</v>
+        <v>0.02923265529362567</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,51 +1095,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>343.5753833333333</v>
+        <v>58.84466766666667</v>
       </c>
       <c r="H11">
-        <v>1030.72615</v>
+        <v>176.534003</v>
       </c>
       <c r="I11">
-        <v>0.235777093718306</v>
+        <v>0.03680742166077718</v>
       </c>
       <c r="J11">
-        <v>0.235777093718306</v>
+        <v>0.03680742166077718</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>1.194006666666667</v>
+        <v>0.4568563333333334</v>
       </c>
       <c r="N11">
-        <v>3.58202</v>
+        <v>1.370569</v>
       </c>
       <c r="O11">
-        <v>0.6564779367281227</v>
+        <v>0.2459930547478846</v>
       </c>
       <c r="P11">
-        <v>0.6564779367281226</v>
+        <v>0.2459930547478847</v>
       </c>
       <c r="Q11">
-        <v>410.2312982025555</v>
+        <v>26.88355910641189</v>
       </c>
       <c r="R11">
-        <v>3692.081683823</v>
+        <v>241.952031957707</v>
       </c>
       <c r="S11">
-        <v>0.1547824600119468</v>
+        <v>0.009054370091728036</v>
       </c>
       <c r="T11">
-        <v>0.1547824600119467</v>
+        <v>0.009054370091728037</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>343.5753833333333</v>
+        <v>58.84466766666667</v>
       </c>
       <c r="H12">
-        <v>1030.72615</v>
+        <v>176.534003</v>
       </c>
       <c r="I12">
-        <v>0.235777093718306</v>
+        <v>0.03680742166077718</v>
       </c>
       <c r="J12">
-        <v>0.235777093718306</v>
+        <v>0.03680742166077718</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.2555663333333333</v>
+        <v>1.194006666666667</v>
       </c>
       <c r="N12">
-        <v>0.7666989999999999</v>
+        <v>3.58202</v>
       </c>
       <c r="O12">
-        <v>0.1405131678805576</v>
+        <v>0.6429096542881224</v>
       </c>
       <c r="P12">
-        <v>0.1405131678805576</v>
+        <v>0.6429096542881225</v>
       </c>
       <c r="Q12">
-        <v>87.80630094209442</v>
+        <v>70.26092549178445</v>
       </c>
       <c r="R12">
-        <v>790.2567084788499</v>
+        <v>632.34832942606</v>
       </c>
       <c r="S12">
-        <v>0.0331297863520303</v>
+        <v>0.02366384673516741</v>
       </c>
       <c r="T12">
-        <v>0.03312978635203028</v>
+        <v>0.02366384673516741</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,7 +1210,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1219,294 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>343.5753833333333</v>
+        <v>58.84466766666667</v>
       </c>
       <c r="H13">
-        <v>1030.72615</v>
+        <v>176.534003</v>
       </c>
       <c r="I13">
-        <v>0.235777093718306</v>
+        <v>0.03680742166077718</v>
       </c>
       <c r="J13">
-        <v>0.235777093718306</v>
+        <v>0.03680742166077718</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.1154886666666667</v>
+        <v>0.206329</v>
       </c>
       <c r="N13">
-        <v>0.346466</v>
+        <v>0.6189870000000001</v>
       </c>
       <c r="O13">
-        <v>0.06349693324616998</v>
+        <v>0.111097290963993</v>
       </c>
       <c r="P13">
-        <v>0.06349693324616996</v>
+        <v>0.111097290963993</v>
       </c>
       <c r="Q13">
-        <v>39.67906292065555</v>
+        <v>12.14136143499567</v>
       </c>
       <c r="R13">
-        <v>357.1115662859</v>
+        <v>109.272252914961</v>
       </c>
       <c r="S13">
-        <v>0.01497112238080724</v>
+        <v>0.00408920483388174</v>
       </c>
       <c r="T13">
-        <v>0.01497112238080723</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>72.47344466666667</v>
-      </c>
-      <c r="H14">
-        <v>217.420334</v>
-      </c>
-      <c r="I14">
-        <v>0.04973458223193755</v>
-      </c>
-      <c r="J14">
-        <v>0.04973458223193754</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.2537453333333333</v>
-      </c>
-      <c r="N14">
-        <v>0.7612359999999999</v>
-      </c>
-      <c r="O14">
-        <v>0.1395119621451497</v>
-      </c>
-      <c r="P14">
-        <v>0.1395119621451497</v>
-      </c>
-      <c r="Q14">
-        <v>18.38979837475822</v>
-      </c>
-      <c r="R14">
-        <v>165.508185372824</v>
-      </c>
-      <c r="S14">
-        <v>0.006938569153646909</v>
-      </c>
-      <c r="T14">
-        <v>0.006938569153646905</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>72.47344466666667</v>
-      </c>
-      <c r="H15">
-        <v>217.420334</v>
-      </c>
-      <c r="I15">
-        <v>0.04973458223193755</v>
-      </c>
-      <c r="J15">
-        <v>0.04973458223193754</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1.194006666666667</v>
-      </c>
-      <c r="N15">
-        <v>3.58202</v>
-      </c>
-      <c r="O15">
-        <v>0.6564779367281227</v>
-      </c>
-      <c r="P15">
-        <v>0.6564779367281226</v>
-      </c>
-      <c r="Q15">
-        <v>86.53377608829777</v>
-      </c>
-      <c r="R15">
-        <v>778.80398479468</v>
-      </c>
-      <c r="S15">
-        <v>0.03264965592765751</v>
-      </c>
-      <c r="T15">
-        <v>0.03264965592765751</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>72.47344466666667</v>
-      </c>
-      <c r="H16">
-        <v>217.420334</v>
-      </c>
-      <c r="I16">
-        <v>0.04973458223193755</v>
-      </c>
-      <c r="J16">
-        <v>0.04973458223193754</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.2555663333333333</v>
-      </c>
-      <c r="N16">
-        <v>0.7666989999999999</v>
-      </c>
-      <c r="O16">
-        <v>0.1405131678805576</v>
-      </c>
-      <c r="P16">
-        <v>0.1405131678805576</v>
-      </c>
-      <c r="Q16">
-        <v>18.52177251749622</v>
-      </c>
-      <c r="R16">
-        <v>166.695952657466</v>
-      </c>
-      <c r="S16">
-        <v>0.006988363702625638</v>
-      </c>
-      <c r="T16">
-        <v>0.006988363702625636</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>72.47344466666667</v>
-      </c>
-      <c r="H17">
-        <v>217.420334</v>
-      </c>
-      <c r="I17">
-        <v>0.04973458223193755</v>
-      </c>
-      <c r="J17">
-        <v>0.04973458223193754</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.1154886666666667</v>
-      </c>
-      <c r="N17">
-        <v>0.346466</v>
-      </c>
-      <c r="O17">
-        <v>0.06349693324616998</v>
-      </c>
-      <c r="P17">
-        <v>0.06349693324616996</v>
-      </c>
-      <c r="Q17">
-        <v>8.369861493293778</v>
-      </c>
-      <c r="R17">
-        <v>75.328753439644</v>
-      </c>
-      <c r="S17">
-        <v>0.00315799344800749</v>
-      </c>
-      <c r="T17">
-        <v>0.003157993448007489</v>
+        <v>0.00408920483388174</v>
       </c>
     </row>
   </sheetData>
